--- a/src/main/resources/reporte/Resumen.xlsx
+++ b/src/main/resources/reporte/Resumen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Proy_AmericanVer5.3\src\main\resources\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C9493E-9A30-4384-A1EB-503CCA3033C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6070E4-CD5B-4E55-8264-4F9676C81BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C01B237-55E4-4B23-88F0-0C11BB3E2F14}"/>
   </bookViews>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EDCE85-D991-4AAF-9610-06F528624A26}">
   <dimension ref="B3:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
